--- a/ea1/pomiary.xlsx
+++ b/ea1/pomiary.xlsx
@@ -135,18 +135,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -159,6 +159,1695 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utw=24 V, Iw=1.1 A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utw=12 V, Iw=1.1 A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$7:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$7:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utw=12 V, Iw=0.7 A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$J$7:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$7:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="47257216"/>
+        <c:axId val="47256640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47257216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Itw [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47256640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="47256640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n [obr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47257216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Itw=2 A, Iw=1.1 A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$22:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$22:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Itw=10 A, Iw=1.1 A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$22:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$22:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="68242240"/>
+        <c:axId val="68243392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68242240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Utw [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68243392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68243392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n [obr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68242240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Itw=2 A, Utw = 12 V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$35:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39999999999999902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$35:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Itw=10 A, Utw = 12 V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$35:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29999999999999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$35:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54805056"/>
+        <c:axId val="54806208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54805056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Iw [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54806208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54806208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n [obr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54805056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utw=50 V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$50:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$50:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utw=30 V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$50:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$50:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="103332608"/>
+        <c:axId val="68239360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103332608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Itw [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68239360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68239360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n [obr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103332608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Itw=5 [A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$65:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$65:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="118015680"/>
+        <c:axId val="54809088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="118015680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Utw [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54809088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54809088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n [obr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118015680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>59775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,16 +2162,16 @@
       </c>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="O3">
         <v>7.1</v>
       </c>
@@ -505,18 +2194,18 @@
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="4"/>
       <c r="O5">
         <v>8.1</v>
       </c>
@@ -528,22 +2217,22 @@
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O6">
@@ -557,23 +2246,23 @@
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>1942</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1.6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>973</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <f>P2/5</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>1129</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <f>O2/5</f>
         <v>1.3800000000000001</v>
       </c>
@@ -588,23 +2277,23 @@
       </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>1934</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>1.6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>966</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <f t="shared" ref="G8:G15" si="0">P3/5</f>
         <v>1.2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>1109</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <f t="shared" ref="J8:J15" si="1">O3/5</f>
         <v>1.42</v>
       </c>
@@ -619,24 +2308,24 @@
       </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>1948</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <f>Q2/5</f>
         <v>1.7</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>959</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>1.22</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>1108</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>1.46</v>
       </c>
@@ -648,24 +2337,24 @@
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>1935</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <f t="shared" ref="D10:D15" si="2">Q3/5</f>
         <v>1.78</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>969</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>1.3599999999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>1110</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>1.6199999999999999</v>
       </c>
@@ -677,465 +2366,465 @@
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>1932</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>1.86</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>955</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>1085</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>1931</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>2.02</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>944</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>1098</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>1920</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>951</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>1.98</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>1080</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <f t="shared" si="1"/>
         <v>2.38</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>1925</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>928</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>1056</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>2.96</v>
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>1854</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
         <v>7.8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>908</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>1022</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="D20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>24</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>1905</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>24</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>1771</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>22</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>1748</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>22</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>1622</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>1576</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>20</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>1424</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>18</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>1409</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>18</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>1259</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>16</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>1218</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>16</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>1077</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>14</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>1072</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>14</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>909</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>12</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>912</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>12</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <v>743</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>740</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>561</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>8</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>576</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>8</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>411</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="D33" s="4"/>
+      <c r="F33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>934</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="1">
         <v>728</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>955</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="1">
         <v>1</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="1">
         <v>761</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>0.9</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>990</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>0.9</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>802</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>0.8</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>1040</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>0.8</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="1">
         <v>866</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>0.7</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>1101</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>0.7</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="1">
         <v>937</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>0.6</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>1221</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>0.6</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="1">
         <v>1015</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>0.499999999999999</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>1348</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>0.499999999999999</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <v>1174</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>0.39999999999999902</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>1575</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>0.39999999999999902</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="1">
         <v>1377</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>0.29999999999999899</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>0.29999999999999899</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="2">
         <v>1753</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="F48" s="2" t="s">
+      <c r="D48" s="4"/>
+      <c r="F48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O49">
@@ -1146,17 +2835,17 @@
       </c>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>3525</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <f>O49/5</f>
         <v>4</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>2092</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="1">
         <f>P49/5</f>
         <v>2.84</v>
       </c>
@@ -1168,17 +2857,17 @@
       </c>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>3509</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <f t="shared" ref="D51:D58" si="3">O50/5</f>
         <v>4.0200000000000005</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>2084</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="1">
         <f t="shared" ref="G51:G58" si="4">P50/5</f>
         <v>2.98</v>
       </c>
@@ -1190,17 +2879,17 @@
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>3504</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <f t="shared" si="3"/>
         <v>4.2</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>2074</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="1">
         <f t="shared" si="4"/>
         <v>3.16</v>
       </c>
@@ -1212,17 +2901,17 @@
       </c>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>3483</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <f t="shared" si="3"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>2042</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="1">
         <f t="shared" si="4"/>
         <v>3.4200000000000004</v>
       </c>
@@ -1234,17 +2923,17 @@
       </c>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>3453</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <f t="shared" si="3"/>
         <v>5.4</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>2027</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -1256,17 +2945,17 @@
       </c>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>3350</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <f t="shared" si="3"/>
         <v>6.9</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>1996</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="1">
         <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
@@ -1278,17 +2967,17 @@
       </c>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>3288</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <f t="shared" si="3"/>
         <v>8.6</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>1908</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="1">
         <f t="shared" si="4"/>
         <v>6.36</v>
       </c>
@@ -1300,17 +2989,17 @@
       </c>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>3193</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <f t="shared" si="3"/>
         <v>10.8</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>1851</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="1">
         <f t="shared" si="4"/>
         <v>7.8</v>
       </c>
@@ -1322,129 +3011,136 @@
       </c>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>3037</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <f t="shared" si="3"/>
         <v>13.4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="1">
         <v>1554</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="1">
         <f t="shared" si="4"/>
         <v>13.8</v>
       </c>
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>50</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="1">
         <v>3500</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>45</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="1">
         <v>3093</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <v>40</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="1">
         <v>2713</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>35</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="1">
         <v>2354</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>30</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="1">
         <v>1964</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>25</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="1">
         <v>1627</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <v>20</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="1">
         <v>1239</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <v>15</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="1">
         <v>886</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>10</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="1">
         <v>528</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="6">
+      <c r="C74" s="3">
         <v>5</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="1">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C18:J18"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="F33:G33"/>
@@ -1452,16 +3148,10 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
